--- a/2 Formulas and Functions/Formulas and Functions - 3.5. Logical Operators.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 3.5. Logical Operators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536503A7-29DC-41C9-A60C-FEC443F07DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{536503A7-29DC-41C9-A60C-FEC443F07DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980398E1-28C5-4F37-AFDB-9B44DD8B8BDC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,8 +152,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -347,19 +347,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,22 +368,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -685,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +700,6 @@
     <col min="8" max="8" width="17.9140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.9140625" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="20"/>
     <col min="12" max="12" width="15.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
@@ -762,10 +760,22 @@
         <f>E2*D2</f>
         <v>44400</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="17"/>
+      <c r="G2" s="12" t="str">
+        <f>IF(F2&gt;=75000,"big","small")</f>
+        <v>small</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f>IF(OR(C2="MacBook Pro", C2="MacBook Air"),"Macbook", IF(C2="Mac Pro", "Mac", ""))</f>
+        <v>Macbook</v>
+      </c>
+      <c r="I2" s="12" t="b">
+        <f>IF(AND(C2="MacBook Pro", F2&gt;=35000), TRUE, "")</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <f>IF(I2=TRUE, F2, "")</f>
+        <v>44400</v>
+      </c>
       <c r="K2" s="19"/>
       <c r="M2" s="6" t="s">
         <v>6</v>
@@ -793,10 +803,22 @@
         <f t="shared" ref="F3:F30" si="0">E3*D3</f>
         <v>31000</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="12" t="str">
+        <f t="shared" ref="G3:G30" si="1">IF(F3&gt;=75000,"big","small")</f>
+        <v>small</v>
+      </c>
+      <c r="H3" s="12" t="str">
+        <f t="shared" ref="H3:H30" si="2">IF(OR(C3="MacBook Pro", C3="MacBook Air"),"Macbook", IF(C3="Mac Pro", "Mac", ""))</f>
+        <v>Macbook</v>
+      </c>
+      <c r="I3" s="12" t="str">
+        <f t="shared" ref="I3:I30" si="3">IF(AND(C3="MacBook Pro", F3&gt;=35000), TRUE, "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J30" si="4">IF(I3=TRUE, F3, "")</f>
+        <v/>
+      </c>
       <c r="K3" s="19"/>
       <c r="L3" s="13" t="s">
         <v>7</v>
@@ -827,10 +849,22 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="17"/>
+      <c r="G4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J4" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K4" s="19"/>
       <c r="L4" s="13" t="s">
         <v>8</v>
@@ -861,10 +895,22 @@
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="17"/>
+      <c r="G5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J5" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K5" s="19"/>
       <c r="L5" s="13" t="s">
         <v>9</v>
@@ -895,10 +941,22 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="17"/>
+      <c r="G6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J6" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K6" s="19"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -923,10 +981,22 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="17"/>
+      <c r="G7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K7" s="19"/>
       <c r="M7" s="6" t="s">
         <v>23</v>
@@ -954,10 +1024,22 @@
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="17"/>
+      <c r="G8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J8" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K8" s="19"/>
       <c r="L8" s="14" t="s">
         <v>12</v>
@@ -988,10 +1070,22 @@
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="14" t="s">
         <v>13</v>
@@ -1022,10 +1116,22 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="17"/>
+      <c r="G10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J10" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K10" s="19"/>
       <c r="L10" s="14" t="s">
         <v>16</v>
@@ -1056,10 +1162,22 @@
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J11" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K11" s="19"/>
       <c r="L11" s="14" t="s">
         <v>14</v>
@@ -1090,10 +1208,22 @@
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K12" s="19"/>
       <c r="L12" s="14" t="s">
         <v>17</v>
@@ -1124,10 +1254,22 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="17"/>
+      <c r="G13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K13" s="19"/>
       <c r="L13" s="14" t="s">
         <v>15</v>
@@ -1158,10 +1300,22 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1184,10 +1338,22 @@
         <f t="shared" si="0"/>
         <v>39600</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I15" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="4"/>
+        <v>39600</v>
+      </c>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1210,15 +1376,30 @@
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="17"/>
+      <c r="G16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K16" s="19"/>
       <c r="L16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="15">
+        <f>COUNTIF(I2:I30,TRUE)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
@@ -1240,15 +1421,30 @@
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="17"/>
+      <c r="G17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H17" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K17" s="19"/>
       <c r="L17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12">
+        <f>SUMIF(I2:I30, TRUE, J2:J30)</f>
+        <v>122400</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
@@ -1270,15 +1466,30 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H18" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="15">
+        <f>COUNTIF(G2:G30,"small")</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
@@ -1300,10 +1511,22 @@
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H19" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1326,10 +1549,22 @@
         <f t="shared" si="0"/>
         <v>38400</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I20" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="4"/>
+        <v>38400</v>
+      </c>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1352,10 +1587,22 @@
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="17"/>
+      <c r="G21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1378,10 +1625,22 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H22" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J22" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1404,10 +1663,22 @@
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="17"/>
+      <c r="G23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H23" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1430,10 +1701,22 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="17"/>
+      <c r="G24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H24" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1456,10 +1739,22 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="17"/>
+      <c r="G25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J25" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1482,10 +1777,22 @@
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J26" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1508,10 +1815,22 @@
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="17"/>
+      <c r="G27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H27" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -1534,10 +1853,22 @@
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="17"/>
+      <c r="G28" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H28" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Macbook</v>
+      </c>
+      <c r="I28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -1560,10 +1891,22 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="17"/>
+      <c r="G29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>big</v>
+      </c>
+      <c r="H29" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J29" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1586,10 +1929,22 @@
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>small</v>
+      </c>
+      <c r="H30" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Mac</v>
+      </c>
+      <c r="I30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J30" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="K30" s="19"/>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.35">
